--- a/stock_historical_data/1wk/ACC.NS.xlsx
+++ b/stock_historical_data/1wk/ACC.NS.xlsx
@@ -61205,7 +61205,9 @@
       <c r="P1146" t="n">
         <v>0</v>
       </c>
-      <c r="Q1146" t="inlineStr"/>
+      <c r="Q1146" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/ACC.NS.xlsx
+++ b/stock_historical_data/1wk/ACC.NS.xlsx
@@ -64701,7 +64701,9 @@
       <c r="Q1147" t="n">
         <v>0</v>
       </c>
-      <c r="R1147" t="inlineStr"/>
+      <c r="R1147" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/ACC.NS.xlsx
+++ b/stock_historical_data/1wk/ACC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1147"/>
+  <dimension ref="A1:R1149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64705,6 +64705,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1148">
+      <c r="A1148" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1148" t="n">
+        <v>2661.699951171875</v>
+      </c>
+      <c r="C1148" t="n">
+        <v>2694.550048828125</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>2579</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>2590.199951171875</v>
+      </c>
+      <c r="F1148" t="n">
+        <v>2590.199951171875</v>
+      </c>
+      <c r="G1148" t="n">
+        <v>1039533</v>
+      </c>
+      <c r="H1148" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1148" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1148" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1148" t="inlineStr"/>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1149" t="n">
+        <v>2585</v>
+      </c>
+      <c r="C1149" t="n">
+        <v>2671.85009765625</v>
+      </c>
+      <c r="D1149" t="n">
+        <v>2519.050048828125</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>2619.050048828125</v>
+      </c>
+      <c r="F1149" t="n">
+        <v>2619.050048828125</v>
+      </c>
+      <c r="G1149" t="n">
+        <v>3341733</v>
+      </c>
+      <c r="H1149" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1149" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1149" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1149" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/ACC.NS.xlsx
+++ b/stock_historical_data/1wk/ACC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1149"/>
+  <dimension ref="A1:R1155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4334,7 +4334,7 @@
         <v>2</v>
       </c>
       <c r="R69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -4446,7 +4446,7 @@
         <v>1</v>
       </c>
       <c r="R71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -4894,7 +4894,7 @@
         <v>2</v>
       </c>
       <c r="R79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -5342,7 +5342,7 @@
         <v>2</v>
       </c>
       <c r="R87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -5454,7 +5454,7 @@
         <v>1</v>
       </c>
       <c r="R89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -5902,7 +5902,7 @@
         <v>1</v>
       </c>
       <c r="R97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -6294,7 +6294,7 @@
         <v>2</v>
       </c>
       <c r="R104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
@@ -6686,7 +6686,7 @@
         <v>2</v>
       </c>
       <c r="R111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
@@ -7078,7 +7078,7 @@
         <v>1</v>
       </c>
       <c r="R118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -7694,7 +7694,7 @@
         <v>1</v>
       </c>
       <c r="R129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -8590,7 +8590,7 @@
         <v>1</v>
       </c>
       <c r="R145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -8982,7 +8982,7 @@
         <v>1</v>
       </c>
       <c r="R152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -9094,7 +9094,7 @@
         <v>2</v>
       </c>
       <c r="R154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155">
@@ -10438,7 +10438,7 @@
         <v>2</v>
       </c>
       <c r="R178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179">
@@ -11334,7 +11334,7 @@
         <v>1</v>
       </c>
       <c r="R194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -12118,7 +12118,7 @@
         <v>2</v>
       </c>
       <c r="R208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209">
@@ -12286,7 +12286,7 @@
         <v>1</v>
       </c>
       <c r="R211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -13854,7 +13854,7 @@
         <v>2</v>
       </c>
       <c r="R239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240">
@@ -13910,7 +13910,7 @@
         <v>1</v>
       </c>
       <c r="R240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -14246,7 +14246,7 @@
         <v>2</v>
       </c>
       <c r="R246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247">
@@ -14806,7 +14806,7 @@
         <v>1</v>
       </c>
       <c r="R256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -15142,7 +15142,7 @@
         <v>2</v>
       </c>
       <c r="R262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263">
@@ -15366,7 +15366,7 @@
         <v>1</v>
       </c>
       <c r="R266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -15646,7 +15646,7 @@
         <v>2</v>
       </c>
       <c r="R271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272">
@@ -15926,7 +15926,7 @@
         <v>1</v>
       </c>
       <c r="R276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -16374,7 +16374,7 @@
         <v>2</v>
       </c>
       <c r="R284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285">
@@ -17158,7 +17158,7 @@
         <v>1</v>
       </c>
       <c r="R298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
@@ -17718,7 +17718,7 @@
         <v>2</v>
       </c>
       <c r="R308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309">
@@ -18446,7 +18446,7 @@
         <v>1</v>
       </c>
       <c r="R321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
@@ -18726,7 +18726,7 @@
         <v>2</v>
       </c>
       <c r="R326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327">
@@ -19398,7 +19398,7 @@
         <v>1</v>
       </c>
       <c r="R338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
@@ -20238,7 +20238,7 @@
         <v>2</v>
       </c>
       <c r="R353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354">
@@ -21190,7 +21190,7 @@
         <v>2</v>
       </c>
       <c r="R370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371">
@@ -21638,7 +21638,7 @@
         <v>2</v>
       </c>
       <c r="R378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379">
@@ -22030,7 +22030,7 @@
         <v>2</v>
       </c>
       <c r="R385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386">
@@ -22366,7 +22366,7 @@
         <v>1</v>
       </c>
       <c r="R391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
@@ -22926,7 +22926,7 @@
         <v>2</v>
       </c>
       <c r="R401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402">
@@ -23094,7 +23094,7 @@
         <v>1</v>
       </c>
       <c r="R404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405">
@@ -23374,7 +23374,7 @@
         <v>2</v>
       </c>
       <c r="R409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410">
@@ -23990,7 +23990,7 @@
         <v>1</v>
       </c>
       <c r="R420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421">
@@ -24494,7 +24494,7 @@
         <v>1</v>
       </c>
       <c r="R429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430">
@@ -25166,7 +25166,7 @@
         <v>1</v>
       </c>
       <c r="R441" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442">
@@ -25334,7 +25334,7 @@
         <v>2</v>
       </c>
       <c r="R444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445">
@@ -25502,7 +25502,7 @@
         <v>1</v>
       </c>
       <c r="R447" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448">
@@ -25670,7 +25670,7 @@
         <v>2</v>
       </c>
       <c r="R450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451">
@@ -26062,7 +26062,7 @@
         <v>1</v>
       </c>
       <c r="R457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458">
@@ -27406,7 +27406,7 @@
         <v>2</v>
       </c>
       <c r="R481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482">
@@ -28134,7 +28134,7 @@
         <v>2</v>
       </c>
       <c r="R494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495">
@@ -28694,7 +28694,7 @@
         <v>1</v>
       </c>
       <c r="R504" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505">
@@ -28974,7 +28974,7 @@
         <v>2</v>
       </c>
       <c r="R509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510">
@@ -29310,7 +29310,7 @@
         <v>2</v>
       </c>
       <c r="R515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516">
@@ -29926,7 +29926,7 @@
         <v>1</v>
       </c>
       <c r="R526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527">
@@ -30654,7 +30654,7 @@
         <v>1</v>
       </c>
       <c r="R539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540">
@@ -30878,7 +30878,7 @@
         <v>2</v>
       </c>
       <c r="R543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544">
@@ -31270,7 +31270,7 @@
         <v>1</v>
       </c>
       <c r="R550" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551">
@@ -32334,7 +32334,7 @@
         <v>1</v>
       </c>
       <c r="R569" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570">
@@ -32670,7 +32670,7 @@
         <v>2</v>
       </c>
       <c r="R575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576">
@@ -33174,7 +33174,7 @@
         <v>2</v>
       </c>
       <c r="R584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585">
@@ -33510,7 +33510,7 @@
         <v>1</v>
       </c>
       <c r="R590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591">
@@ -34014,7 +34014,7 @@
         <v>2</v>
       </c>
       <c r="R599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600">
@@ -34126,7 +34126,7 @@
         <v>1</v>
       </c>
       <c r="R601" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602">
@@ -34350,7 +34350,7 @@
         <v>2</v>
       </c>
       <c r="R605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606">
@@ -34742,7 +34742,7 @@
         <v>1</v>
       </c>
       <c r="R612" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613">
@@ -35246,7 +35246,7 @@
         <v>2</v>
       </c>
       <c r="R621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622">
@@ -35526,7 +35526,7 @@
         <v>1</v>
       </c>
       <c r="R626" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627">
@@ -35806,7 +35806,7 @@
         <v>2</v>
       </c>
       <c r="R631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632">
@@ -36254,7 +36254,7 @@
         <v>1</v>
       </c>
       <c r="R639" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640">
@@ -36478,7 +36478,7 @@
         <v>2</v>
       </c>
       <c r="R643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644">
@@ -37934,7 +37934,7 @@
         <v>2</v>
       </c>
       <c r="R669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670">
@@ -39614,7 +39614,7 @@
         <v>1</v>
       </c>
       <c r="R699" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700">
@@ -39894,7 +39894,7 @@
         <v>2</v>
       </c>
       <c r="R704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705">
@@ -40342,7 +40342,7 @@
         <v>2</v>
       </c>
       <c r="R712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713">
@@ -42134,7 +42134,7 @@
         <v>2</v>
       </c>
       <c r="R744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="745">
@@ -42974,7 +42974,7 @@
         <v>1</v>
       </c>
       <c r="R759" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760">
@@ -43590,7 +43590,7 @@
         <v>2</v>
       </c>
       <c r="R770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771">
@@ -43926,7 +43926,7 @@
         <v>1</v>
       </c>
       <c r="R776" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="777">
@@ -44318,7 +44318,7 @@
         <v>2</v>
       </c>
       <c r="R783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784">
@@ -44710,7 +44710,7 @@
         <v>1</v>
       </c>
       <c r="R790" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="791">
@@ -45326,7 +45326,7 @@
         <v>2</v>
       </c>
       <c r="R801" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="802">
@@ -45438,7 +45438,7 @@
         <v>1</v>
       </c>
       <c r="R803" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="804">
@@ -45718,7 +45718,7 @@
         <v>2</v>
       </c>
       <c r="R808" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809">
@@ -46110,7 +46110,7 @@
         <v>1</v>
       </c>
       <c r="R815" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="816">
@@ -46894,7 +46894,7 @@
         <v>1</v>
       </c>
       <c r="R829" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="830">
@@ -47062,7 +47062,7 @@
         <v>2</v>
       </c>
       <c r="R832" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="833">
@@ -47790,7 +47790,7 @@
         <v>1</v>
       </c>
       <c r="R845" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="846">
@@ -48182,7 +48182,7 @@
         <v>2</v>
       </c>
       <c r="R852" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="853">
@@ -48630,7 +48630,7 @@
         <v>1</v>
       </c>
       <c r="R860" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="861">
@@ -48966,7 +48966,7 @@
         <v>1</v>
       </c>
       <c r="R866" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="867">
@@ -49022,7 +49022,7 @@
         <v>2</v>
       </c>
       <c r="R867" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="868">
@@ -49862,7 +49862,7 @@
         <v>2</v>
       </c>
       <c r="R882" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="883">
@@ -50310,7 +50310,7 @@
         <v>2</v>
       </c>
       <c r="R890" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="891">
@@ -50478,7 +50478,7 @@
         <v>1</v>
       </c>
       <c r="R893" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="894">
@@ -50702,7 +50702,7 @@
         <v>2</v>
       </c>
       <c r="R897" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="898">
@@ -51262,7 +51262,7 @@
         <v>2</v>
       </c>
       <c r="R907" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="908">
@@ -51374,7 +51374,7 @@
         <v>1</v>
       </c>
       <c r="R909" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="910">
@@ -51878,7 +51878,7 @@
         <v>1</v>
       </c>
       <c r="R918" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="919">
@@ -52270,7 +52270,7 @@
         <v>2</v>
       </c>
       <c r="R925" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="926">
@@ -52718,7 +52718,7 @@
         <v>1</v>
       </c>
       <c r="R933" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="934">
@@ -53726,7 +53726,7 @@
         <v>2</v>
       </c>
       <c r="R951" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="952">
@@ -54062,7 +54062,7 @@
         <v>1</v>
       </c>
       <c r="R957" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="958">
@@ -54734,7 +54734,7 @@
         <v>2</v>
       </c>
       <c r="R969" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="970">
@@ -54902,7 +54902,7 @@
         <v>1</v>
       </c>
       <c r="R972" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="973">
@@ -55238,7 +55238,7 @@
         <v>1</v>
       </c>
       <c r="R978" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="979">
@@ -55742,7 +55742,7 @@
         <v>2</v>
       </c>
       <c r="R987" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="988">
@@ -56974,7 +56974,7 @@
         <v>2</v>
       </c>
       <c r="R1009" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1010">
@@ -57366,7 +57366,7 @@
         <v>1</v>
       </c>
       <c r="R1016" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1017">
@@ -57534,7 +57534,7 @@
         <v>2</v>
       </c>
       <c r="R1019" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1020">
@@ -57814,7 +57814,7 @@
         <v>1</v>
       </c>
       <c r="R1024" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1025">
@@ -58038,7 +58038,7 @@
         <v>2</v>
       </c>
       <c r="R1028" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1029">
@@ -58430,7 +58430,7 @@
         <v>1</v>
       </c>
       <c r="R1035" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1036">
@@ -58766,7 +58766,7 @@
         <v>1</v>
       </c>
       <c r="R1041" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1042">
@@ -59214,7 +59214,7 @@
         <v>1</v>
       </c>
       <c r="R1049" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1050">
@@ -60222,7 +60222,7 @@
         <v>1</v>
       </c>
       <c r="R1067" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1068">
@@ -60670,7 +60670,7 @@
         <v>2</v>
       </c>
       <c r="R1075" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1076">
@@ -61510,7 +61510,7 @@
         <v>1</v>
       </c>
       <c r="R1090" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1091">
@@ -62070,7 +62070,7 @@
         <v>2</v>
       </c>
       <c r="R1100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1101">
@@ -62798,7 +62798,7 @@
         <v>2</v>
       </c>
       <c r="R1113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1114">
@@ -63414,7 +63414,7 @@
         <v>1</v>
       </c>
       <c r="R1124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1125">
@@ -64086,7 +64086,7 @@
         <v>2</v>
       </c>
       <c r="R1136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1137">
@@ -64310,7 +64310,7 @@
         <v>1</v>
       </c>
       <c r="R1140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1141">
@@ -64637,7 +64637,7 @@
         <v>23</v>
       </c>
       <c r="O1146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1146" t="n">
         <v>0</v>
@@ -64757,7 +64757,9 @@
       <c r="Q1148" t="n">
         <v>0</v>
       </c>
-      <c r="R1148" t="inlineStr"/>
+      <c r="R1148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1149">
       <c r="A1149" s="2" t="n">
@@ -64811,7 +64813,333 @@
       <c r="Q1149" t="n">
         <v>0</v>
       </c>
-      <c r="R1149" t="inlineStr"/>
+      <c r="R1149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1150" t="n">
+        <v>2634.75</v>
+      </c>
+      <c r="C1150" t="n">
+        <v>2844</v>
+      </c>
+      <c r="D1150" t="n">
+        <v>2619.10009765625</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>2669.5</v>
+      </c>
+      <c r="F1150" t="n">
+        <v>2669.5</v>
+      </c>
+      <c r="G1150" t="n">
+        <v>3729039</v>
+      </c>
+      <c r="H1150" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1150" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1150" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1150" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1150" t="inlineStr"/>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1151" t="n">
+        <v>2670.10009765625</v>
+      </c>
+      <c r="C1151" t="n">
+        <v>2740</v>
+      </c>
+      <c r="D1151" t="n">
+        <v>2586.5</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>2686.14990234375</v>
+      </c>
+      <c r="F1151" t="n">
+        <v>2686.14990234375</v>
+      </c>
+      <c r="G1151" t="n">
+        <v>2172918</v>
+      </c>
+      <c r="H1151" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1151" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1151" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1151" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1151" t="inlineStr"/>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1152" t="n">
+        <v>2690</v>
+      </c>
+      <c r="C1152" t="n">
+        <v>2744.25</v>
+      </c>
+      <c r="D1152" t="n">
+        <v>2596.14990234375</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>2619.800048828125</v>
+      </c>
+      <c r="F1152" t="n">
+        <v>2619.800048828125</v>
+      </c>
+      <c r="G1152" t="n">
+        <v>1389155</v>
+      </c>
+      <c r="H1152" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1152" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1152" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1152" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1152" t="inlineStr"/>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1153" t="n">
+        <v>2621</v>
+      </c>
+      <c r="C1153" t="n">
+        <v>2699.89990234375</v>
+      </c>
+      <c r="D1153" t="n">
+        <v>2556.800048828125</v>
+      </c>
+      <c r="E1153" t="n">
+        <v>2614.14990234375</v>
+      </c>
+      <c r="F1153" t="n">
+        <v>2614.14990234375</v>
+      </c>
+      <c r="G1153" t="n">
+        <v>2036931</v>
+      </c>
+      <c r="H1153" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1153" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1153" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1153" t="inlineStr"/>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1154" t="n">
+        <v>2640</v>
+      </c>
+      <c r="C1154" t="n">
+        <v>2691.89990234375</v>
+      </c>
+      <c r="D1154" t="n">
+        <v>2431</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>2435.300048828125</v>
+      </c>
+      <c r="F1154" t="n">
+        <v>2435.300048828125</v>
+      </c>
+      <c r="G1154" t="n">
+        <v>4064642</v>
+      </c>
+      <c r="H1154" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1154" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1154" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1154" t="inlineStr"/>
+    </row>
+    <row r="1155">
+      <c r="A1155" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1155" t="n">
+        <v>2415</v>
+      </c>
+      <c r="C1155" t="n">
+        <v>2443.39990234375</v>
+      </c>
+      <c r="D1155" t="n">
+        <v>2336</v>
+      </c>
+      <c r="E1155" t="n">
+        <v>2351.550048828125</v>
+      </c>
+      <c r="F1155" t="n">
+        <v>2351.550048828125</v>
+      </c>
+      <c r="G1155" t="n">
+        <v>1863002</v>
+      </c>
+      <c r="H1155" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1155" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1155" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1155" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/ACC.NS.xlsx
+++ b/stock_historical_data/1wk/ACC.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1155"/>
+  <dimension ref="A1:R1188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4331,10 +4331,10 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -4443,10 +4443,10 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -4891,10 +4891,10 @@
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -5339,10 +5339,10 @@
         <v>0</v>
       </c>
       <c r="Q87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -5451,10 +5451,10 @@
         <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -5902,7 +5902,7 @@
         <v>1</v>
       </c>
       <c r="R97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -6294,7 +6294,7 @@
         <v>2</v>
       </c>
       <c r="R104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -6686,7 +6686,7 @@
         <v>2</v>
       </c>
       <c r="R111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -7078,7 +7078,7 @@
         <v>1</v>
       </c>
       <c r="R118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -7694,7 +7694,7 @@
         <v>1</v>
       </c>
       <c r="R129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -8590,7 +8590,7 @@
         <v>1</v>
       </c>
       <c r="R145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -8982,7 +8982,7 @@
         <v>1</v>
       </c>
       <c r="R152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -9094,7 +9094,7 @@
         <v>2</v>
       </c>
       <c r="R154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -10438,7 +10438,7 @@
         <v>2</v>
       </c>
       <c r="R178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -11334,7 +11334,7 @@
         <v>1</v>
       </c>
       <c r="R194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -12118,7 +12118,7 @@
         <v>2</v>
       </c>
       <c r="R208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -12286,7 +12286,7 @@
         <v>1</v>
       </c>
       <c r="R211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -13854,7 +13854,7 @@
         <v>2</v>
       </c>
       <c r="R239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -13910,7 +13910,7 @@
         <v>1</v>
       </c>
       <c r="R240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -14246,7 +14246,7 @@
         <v>2</v>
       </c>
       <c r="R246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
@@ -14806,7 +14806,7 @@
         <v>1</v>
       </c>
       <c r="R256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
@@ -15142,7 +15142,7 @@
         <v>2</v>
       </c>
       <c r="R262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
@@ -15366,7 +15366,7 @@
         <v>1</v>
       </c>
       <c r="R266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
@@ -15646,7 +15646,7 @@
         <v>2</v>
       </c>
       <c r="R271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
@@ -15926,7 +15926,7 @@
         <v>1</v>
       </c>
       <c r="R276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
@@ -16374,7 +16374,7 @@
         <v>2</v>
       </c>
       <c r="R284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
@@ -17158,7 +17158,7 @@
         <v>1</v>
       </c>
       <c r="R298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
@@ -17718,7 +17718,7 @@
         <v>2</v>
       </c>
       <c r="R308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
@@ -18446,7 +18446,7 @@
         <v>1</v>
       </c>
       <c r="R321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322">
@@ -18726,7 +18726,7 @@
         <v>2</v>
       </c>
       <c r="R326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
@@ -19398,7 +19398,7 @@
         <v>1</v>
       </c>
       <c r="R338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
@@ -20238,7 +20238,7 @@
         <v>2</v>
       </c>
       <c r="R353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
@@ -21190,7 +21190,7 @@
         <v>2</v>
       </c>
       <c r="R370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371">
@@ -21638,7 +21638,7 @@
         <v>2</v>
       </c>
       <c r="R378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
@@ -22030,7 +22030,7 @@
         <v>2</v>
       </c>
       <c r="R385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386">
@@ -22366,7 +22366,7 @@
         <v>1</v>
       </c>
       <c r="R391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
@@ -22926,7 +22926,7 @@
         <v>2</v>
       </c>
       <c r="R401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
@@ -23094,7 +23094,7 @@
         <v>1</v>
       </c>
       <c r="R404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405">
@@ -23374,7 +23374,7 @@
         <v>2</v>
       </c>
       <c r="R409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410">
@@ -23990,7 +23990,7 @@
         <v>1</v>
       </c>
       <c r="R420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421">
@@ -24494,7 +24494,7 @@
         <v>1</v>
       </c>
       <c r="R429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430">
@@ -25166,7 +25166,7 @@
         <v>1</v>
       </c>
       <c r="R441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442">
@@ -25334,7 +25334,7 @@
         <v>2</v>
       </c>
       <c r="R444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445">
@@ -25502,7 +25502,7 @@
         <v>1</v>
       </c>
       <c r="R447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448">
@@ -25670,7 +25670,7 @@
         <v>2</v>
       </c>
       <c r="R450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451">
@@ -26062,7 +26062,7 @@
         <v>1</v>
       </c>
       <c r="R457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458">
@@ -27406,7 +27406,7 @@
         <v>2</v>
       </c>
       <c r="R481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482">
@@ -28134,7 +28134,7 @@
         <v>2</v>
       </c>
       <c r="R494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495">
@@ -28694,7 +28694,7 @@
         <v>1</v>
       </c>
       <c r="R504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
@@ -28974,7 +28974,7 @@
         <v>2</v>
       </c>
       <c r="R509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510">
@@ -29310,7 +29310,7 @@
         <v>2</v>
       </c>
       <c r="R515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516">
@@ -29926,7 +29926,7 @@
         <v>1</v>
       </c>
       <c r="R526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527">
@@ -30654,7 +30654,7 @@
         <v>1</v>
       </c>
       <c r="R539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540">
@@ -30878,7 +30878,7 @@
         <v>2</v>
       </c>
       <c r="R543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544">
@@ -31270,7 +31270,7 @@
         <v>1</v>
       </c>
       <c r="R550" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551">
@@ -32334,7 +32334,7 @@
         <v>1</v>
       </c>
       <c r="R569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570">
@@ -32670,7 +32670,7 @@
         <v>2</v>
       </c>
       <c r="R575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576">
@@ -33174,7 +33174,7 @@
         <v>2</v>
       </c>
       <c r="R584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585">
@@ -33510,7 +33510,7 @@
         <v>1</v>
       </c>
       <c r="R590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591">
@@ -34014,7 +34014,7 @@
         <v>2</v>
       </c>
       <c r="R599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600">
@@ -34126,7 +34126,7 @@
         <v>1</v>
       </c>
       <c r="R601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602">
@@ -34350,7 +34350,7 @@
         <v>2</v>
       </c>
       <c r="R605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606">
@@ -34742,7 +34742,7 @@
         <v>1</v>
       </c>
       <c r="R612" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613">
@@ -35246,7 +35246,7 @@
         <v>2</v>
       </c>
       <c r="R621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622">
@@ -35526,7 +35526,7 @@
         <v>1</v>
       </c>
       <c r="R626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627">
@@ -35806,7 +35806,7 @@
         <v>2</v>
       </c>
       <c r="R631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632">
@@ -36254,7 +36254,7 @@
         <v>1</v>
       </c>
       <c r="R639" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640">
@@ -36478,7 +36478,7 @@
         <v>2</v>
       </c>
       <c r="R643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644">
@@ -37934,7 +37934,7 @@
         <v>2</v>
       </c>
       <c r="R669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670">
@@ -39614,7 +39614,7 @@
         <v>1</v>
       </c>
       <c r="R699" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700">
@@ -39894,7 +39894,7 @@
         <v>2</v>
       </c>
       <c r="R704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705">
@@ -40342,7 +40342,7 @@
         <v>2</v>
       </c>
       <c r="R712" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713">
@@ -42134,7 +42134,7 @@
         <v>2</v>
       </c>
       <c r="R744" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745">
@@ -42974,7 +42974,7 @@
         <v>1</v>
       </c>
       <c r="R759" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760">
@@ -43590,7 +43590,7 @@
         <v>2</v>
       </c>
       <c r="R770" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771">
@@ -43926,7 +43926,7 @@
         <v>1</v>
       </c>
       <c r="R776" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777">
@@ -44318,7 +44318,7 @@
         <v>2</v>
       </c>
       <c r="R783" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784">
@@ -44710,7 +44710,7 @@
         <v>1</v>
       </c>
       <c r="R790" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791">
@@ -45326,7 +45326,7 @@
         <v>2</v>
       </c>
       <c r="R801" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802">
@@ -45438,7 +45438,7 @@
         <v>1</v>
       </c>
       <c r="R803" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804">
@@ -45718,7 +45718,7 @@
         <v>2</v>
       </c>
       <c r="R808" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809">
@@ -46110,7 +46110,7 @@
         <v>1</v>
       </c>
       <c r="R815" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816">
@@ -46894,7 +46894,7 @@
         <v>1</v>
       </c>
       <c r="R829" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830">
@@ -47062,7 +47062,7 @@
         <v>2</v>
       </c>
       <c r="R832" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833">
@@ -47790,7 +47790,7 @@
         <v>1</v>
       </c>
       <c r="R845" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846">
@@ -48182,7 +48182,7 @@
         <v>2</v>
       </c>
       <c r="R852" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853">
@@ -48630,7 +48630,7 @@
         <v>1</v>
       </c>
       <c r="R860" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861">
@@ -48966,7 +48966,7 @@
         <v>1</v>
       </c>
       <c r="R866" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867">
@@ -49022,7 +49022,7 @@
         <v>2</v>
       </c>
       <c r="R867" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868">
@@ -49862,7 +49862,7 @@
         <v>2</v>
       </c>
       <c r="R882" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883">
@@ -50310,7 +50310,7 @@
         <v>2</v>
       </c>
       <c r="R890" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891">
@@ -50478,7 +50478,7 @@
         <v>1</v>
       </c>
       <c r="R893" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894">
@@ -50702,7 +50702,7 @@
         <v>2</v>
       </c>
       <c r="R897" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898">
@@ -51262,7 +51262,7 @@
         <v>2</v>
       </c>
       <c r="R907" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908">
@@ -51374,7 +51374,7 @@
         <v>1</v>
       </c>
       <c r="R909" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910">
@@ -51878,7 +51878,7 @@
         <v>1</v>
       </c>
       <c r="R918" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919">
@@ -52270,7 +52270,7 @@
         <v>2</v>
       </c>
       <c r="R925" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926">
@@ -52718,7 +52718,7 @@
         <v>1</v>
       </c>
       <c r="R933" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="934">
@@ -53726,7 +53726,7 @@
         <v>2</v>
       </c>
       <c r="R951" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="952">
@@ -54062,7 +54062,7 @@
         <v>1</v>
       </c>
       <c r="R957" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="958">
@@ -54734,7 +54734,7 @@
         <v>2</v>
       </c>
       <c r="R969" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="970">
@@ -54902,7 +54902,7 @@
         <v>1</v>
       </c>
       <c r="R972" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="973">
@@ -55238,7 +55238,7 @@
         <v>1</v>
       </c>
       <c r="R978" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="979">
@@ -55742,7 +55742,7 @@
         <v>2</v>
       </c>
       <c r="R987" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="988">
@@ -56974,7 +56974,7 @@
         <v>2</v>
       </c>
       <c r="R1009" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1010">
@@ -57366,7 +57366,7 @@
         <v>1</v>
       </c>
       <c r="R1016" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1017">
@@ -57534,7 +57534,7 @@
         <v>2</v>
       </c>
       <c r="R1019" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1020">
@@ -57814,7 +57814,7 @@
         <v>1</v>
       </c>
       <c r="R1024" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1025">
@@ -58038,7 +58038,7 @@
         <v>2</v>
       </c>
       <c r="R1028" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1029">
@@ -58430,7 +58430,7 @@
         <v>1</v>
       </c>
       <c r="R1035" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1036">
@@ -58766,7 +58766,7 @@
         <v>1</v>
       </c>
       <c r="R1041" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1042">
@@ -59214,7 +59214,7 @@
         <v>1</v>
       </c>
       <c r="R1049" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1050">
@@ -60222,7 +60222,7 @@
         <v>1</v>
       </c>
       <c r="R1067" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1068">
@@ -60670,7 +60670,7 @@
         <v>2</v>
       </c>
       <c r="R1075" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1076">
@@ -61510,7 +61510,7 @@
         <v>1</v>
       </c>
       <c r="R1090" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1091">
@@ -62070,7 +62070,7 @@
         <v>2</v>
       </c>
       <c r="R1100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1101">
@@ -62798,7 +62798,7 @@
         <v>2</v>
       </c>
       <c r="R1113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1114">
@@ -63414,7 +63414,7 @@
         <v>1</v>
       </c>
       <c r="R1124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1125">
@@ -64086,7 +64086,7 @@
         <v>2</v>
       </c>
       <c r="R1136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1137">
@@ -64310,7 +64310,7 @@
         <v>1</v>
       </c>
       <c r="R1140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1141">
@@ -64869,7 +64869,9 @@
       <c r="Q1150" t="n">
         <v>0</v>
       </c>
-      <c r="R1150" t="inlineStr"/>
+      <c r="R1150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1151">
       <c r="A1151" s="2" t="n">
@@ -64923,7 +64925,9 @@
       <c r="Q1151" t="n">
         <v>0</v>
       </c>
-      <c r="R1151" t="inlineStr"/>
+      <c r="R1151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1152">
       <c r="A1152" s="2" t="n">
@@ -64977,7 +64981,9 @@
       <c r="Q1152" t="n">
         <v>1</v>
       </c>
-      <c r="R1152" t="inlineStr"/>
+      <c r="R1152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1153">
       <c r="A1153" s="2" t="n">
@@ -65031,7 +65037,9 @@
       <c r="Q1153" t="n">
         <v>0</v>
       </c>
-      <c r="R1153" t="inlineStr"/>
+      <c r="R1153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1154">
       <c r="A1154" s="2" t="n">
@@ -65085,7 +65093,9 @@
       <c r="Q1154" t="n">
         <v>0</v>
       </c>
-      <c r="R1154" t="inlineStr"/>
+      <c r="R1154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1155">
       <c r="A1155" s="2" t="n">
@@ -65139,7 +65149,1725 @@
       <c r="Q1155" t="n">
         <v>0</v>
       </c>
-      <c r="R1155" t="inlineStr"/>
+      <c r="R1155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1156" t="n">
+        <v>2315</v>
+      </c>
+      <c r="C1156" t="n">
+        <v>2366.199951171875</v>
+      </c>
+      <c r="D1156" t="n">
+        <v>2267.699951171875</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>2337.89990234375</v>
+      </c>
+      <c r="F1156" t="inlineStr"/>
+      <c r="G1156" t="n">
+        <v>1324799</v>
+      </c>
+      <c r="H1156" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1156" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1156" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1156" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1156" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1156" t="inlineStr"/>
+    </row>
+    <row r="1157">
+      <c r="A1157" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1157" t="n">
+        <v>2349</v>
+      </c>
+      <c r="C1157" t="n">
+        <v>2377.949951171875</v>
+      </c>
+      <c r="D1157" t="n">
+        <v>2312.64990234375</v>
+      </c>
+      <c r="E1157" t="n">
+        <v>2323.75</v>
+      </c>
+      <c r="F1157" t="inlineStr"/>
+      <c r="G1157" t="n">
+        <v>1500791</v>
+      </c>
+      <c r="H1157" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1157" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1157" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1157" t="inlineStr"/>
+    </row>
+    <row r="1158">
+      <c r="A1158" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1158" t="n">
+        <v>2344</v>
+      </c>
+      <c r="C1158" t="n">
+        <v>2358</v>
+      </c>
+      <c r="D1158" t="n">
+        <v>2286.699951171875</v>
+      </c>
+      <c r="E1158" t="n">
+        <v>2329.14990234375</v>
+      </c>
+      <c r="F1158" t="inlineStr"/>
+      <c r="G1158" t="n">
+        <v>1200993</v>
+      </c>
+      <c r="H1158" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1158" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1158" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1158" t="inlineStr"/>
+    </row>
+    <row r="1159">
+      <c r="A1159" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1159" t="n">
+        <v>2338.800048828125</v>
+      </c>
+      <c r="C1159" t="n">
+        <v>2449.89990234375</v>
+      </c>
+      <c r="D1159" t="n">
+        <v>2318</v>
+      </c>
+      <c r="E1159" t="n">
+        <v>2429.39990234375</v>
+      </c>
+      <c r="F1159" t="inlineStr"/>
+      <c r="G1159" t="n">
+        <v>2864822</v>
+      </c>
+      <c r="H1159" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1159" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1159" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1159" t="inlineStr"/>
+    </row>
+    <row r="1160">
+      <c r="A1160" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1160" t="n">
+        <v>2434.35009765625</v>
+      </c>
+      <c r="C1160" t="n">
+        <v>2524.949951171875</v>
+      </c>
+      <c r="D1160" t="n">
+        <v>2387.39990234375</v>
+      </c>
+      <c r="E1160" t="n">
+        <v>2517.449951171875</v>
+      </c>
+      <c r="F1160" t="inlineStr"/>
+      <c r="G1160" t="n">
+        <v>1983455</v>
+      </c>
+      <c r="H1160" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1160" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1160" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1160" t="inlineStr"/>
+    </row>
+    <row r="1161">
+      <c r="A1161" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1161" t="n">
+        <v>2517.449951171875</v>
+      </c>
+      <c r="C1161" t="n">
+        <v>2533.5</v>
+      </c>
+      <c r="D1161" t="n">
+        <v>2413.39990234375</v>
+      </c>
+      <c r="E1161" t="n">
+        <v>2443.199951171875</v>
+      </c>
+      <c r="F1161" t="inlineStr"/>
+      <c r="G1161" t="n">
+        <v>1486130</v>
+      </c>
+      <c r="H1161" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1161" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1161" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1161" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1161" t="inlineStr"/>
+    </row>
+    <row r="1162">
+      <c r="A1162" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1162" t="n">
+        <v>2458.39990234375</v>
+      </c>
+      <c r="C1162" t="n">
+        <v>2514.85009765625</v>
+      </c>
+      <c r="D1162" t="n">
+        <v>2427.5</v>
+      </c>
+      <c r="E1162" t="n">
+        <v>2483.300048828125</v>
+      </c>
+      <c r="F1162" t="inlineStr"/>
+      <c r="G1162" t="n">
+        <v>1614353</v>
+      </c>
+      <c r="H1162" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1162" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1162" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1162" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1162" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1162" t="inlineStr"/>
+    </row>
+    <row r="1163">
+      <c r="A1163" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1163" t="n">
+        <v>2483</v>
+      </c>
+      <c r="C1163" t="n">
+        <v>2544.89990234375</v>
+      </c>
+      <c r="D1163" t="n">
+        <v>2415.050048828125</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>2433.75</v>
+      </c>
+      <c r="F1163" t="inlineStr"/>
+      <c r="G1163" t="n">
+        <v>1205133</v>
+      </c>
+      <c r="H1163" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1163" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1163" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1163" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1163" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1163" t="inlineStr"/>
+    </row>
+    <row r="1164">
+      <c r="A1164" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1164" t="n">
+        <v>2441.949951171875</v>
+      </c>
+      <c r="C1164" t="n">
+        <v>2449.5</v>
+      </c>
+      <c r="D1164" t="n">
+        <v>2290</v>
+      </c>
+      <c r="E1164" t="n">
+        <v>2312.449951171875</v>
+      </c>
+      <c r="F1164" t="inlineStr"/>
+      <c r="G1164" t="n">
+        <v>1804782</v>
+      </c>
+      <c r="H1164" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1164" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1164" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1164" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1164" t="inlineStr"/>
+    </row>
+    <row r="1165">
+      <c r="A1165" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1165" t="n">
+        <v>2317.050048828125</v>
+      </c>
+      <c r="C1165" t="n">
+        <v>2330.449951171875</v>
+      </c>
+      <c r="D1165" t="n">
+        <v>2236.14990234375</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>2285.64990234375</v>
+      </c>
+      <c r="F1165" t="inlineStr"/>
+      <c r="G1165" t="n">
+        <v>1195795</v>
+      </c>
+      <c r="H1165" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1165" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1165" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1165" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1165" t="inlineStr"/>
+    </row>
+    <row r="1166">
+      <c r="A1166" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1166" t="n">
+        <v>2300</v>
+      </c>
+      <c r="C1166" t="n">
+        <v>2329.89990234375</v>
+      </c>
+      <c r="D1166" t="n">
+        <v>2187.550048828125</v>
+      </c>
+      <c r="E1166" t="n">
+        <v>2237.800048828125</v>
+      </c>
+      <c r="F1166" t="inlineStr"/>
+      <c r="G1166" t="n">
+        <v>2173818</v>
+      </c>
+      <c r="H1166" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1166" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1166" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1166" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1166" t="inlineStr"/>
+    </row>
+    <row r="1167">
+      <c r="A1167" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1167" t="n">
+        <v>2220</v>
+      </c>
+      <c r="C1167" t="n">
+        <v>2378.39990234375</v>
+      </c>
+      <c r="D1167" t="n">
+        <v>2201.25</v>
+      </c>
+      <c r="E1167" t="n">
+        <v>2327.85009765625</v>
+      </c>
+      <c r="F1167" t="inlineStr"/>
+      <c r="G1167" t="n">
+        <v>1116229</v>
+      </c>
+      <c r="H1167" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1167" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1167" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1167" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1167" t="inlineStr"/>
+    </row>
+    <row r="1168">
+      <c r="A1168" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1168" t="n">
+        <v>2327.89990234375</v>
+      </c>
+      <c r="C1168" t="n">
+        <v>2367</v>
+      </c>
+      <c r="D1168" t="n">
+        <v>2276</v>
+      </c>
+      <c r="E1168" t="n">
+        <v>2291.39990234375</v>
+      </c>
+      <c r="F1168" t="inlineStr"/>
+      <c r="G1168" t="n">
+        <v>835991</v>
+      </c>
+      <c r="H1168" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1168" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1168" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1168" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1168" t="inlineStr"/>
+    </row>
+    <row r="1169">
+      <c r="A1169" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1169" t="n">
+        <v>2288</v>
+      </c>
+      <c r="C1169" t="n">
+        <v>2295.85009765625</v>
+      </c>
+      <c r="D1169" t="n">
+        <v>2178.050048828125</v>
+      </c>
+      <c r="E1169" t="n">
+        <v>2188.14990234375</v>
+      </c>
+      <c r="F1169" t="inlineStr"/>
+      <c r="G1169" t="n">
+        <v>563374</v>
+      </c>
+      <c r="H1169" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1169" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1169" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1169" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1169" t="inlineStr"/>
+    </row>
+    <row r="1170">
+      <c r="A1170" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1170" t="n">
+        <v>2200</v>
+      </c>
+      <c r="C1170" t="n">
+        <v>2231.550048828125</v>
+      </c>
+      <c r="D1170" t="n">
+        <v>1868.199951171875</v>
+      </c>
+      <c r="E1170" t="n">
+        <v>2089.60009765625</v>
+      </c>
+      <c r="F1170" t="inlineStr"/>
+      <c r="G1170" t="n">
+        <v>4897502</v>
+      </c>
+      <c r="H1170" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1170" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1170" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1170" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1170" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1170" t="inlineStr"/>
+    </row>
+    <row r="1171">
+      <c r="A1171" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1171" t="n">
+        <v>2130.050048828125</v>
+      </c>
+      <c r="C1171" t="n">
+        <v>2238.39990234375</v>
+      </c>
+      <c r="D1171" t="n">
+        <v>2094.949951171875</v>
+      </c>
+      <c r="E1171" t="n">
+        <v>2222.550048828125</v>
+      </c>
+      <c r="F1171" t="inlineStr"/>
+      <c r="G1171" t="n">
+        <v>2755199</v>
+      </c>
+      <c r="H1171" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1171" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1171" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1171" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1171" t="inlineStr"/>
+    </row>
+    <row r="1172">
+      <c r="A1172" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1172" t="n">
+        <v>2239.89990234375</v>
+      </c>
+      <c r="C1172" t="n">
+        <v>2314.89990234375</v>
+      </c>
+      <c r="D1172" t="n">
+        <v>2212.35009765625</v>
+      </c>
+      <c r="E1172" t="n">
+        <v>2258.35009765625</v>
+      </c>
+      <c r="F1172" t="inlineStr"/>
+      <c r="G1172" t="n">
+        <v>2200677</v>
+      </c>
+      <c r="H1172" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1172" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1172" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1172" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1172" t="inlineStr"/>
+    </row>
+    <row r="1173">
+      <c r="A1173" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1173" t="n">
+        <v>2258.35009765625</v>
+      </c>
+      <c r="C1173" t="n">
+        <v>2295</v>
+      </c>
+      <c r="D1173" t="n">
+        <v>2195</v>
+      </c>
+      <c r="E1173" t="n">
+        <v>2248.050048828125</v>
+      </c>
+      <c r="F1173" t="inlineStr"/>
+      <c r="G1173" t="n">
+        <v>1385148</v>
+      </c>
+      <c r="H1173" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1173" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1173" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1173" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1173" t="inlineStr"/>
+    </row>
+    <row r="1174">
+      <c r="A1174" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1174" t="n">
+        <v>2253</v>
+      </c>
+      <c r="C1174" t="n">
+        <v>2268.89990234375</v>
+      </c>
+      <c r="D1174" t="n">
+        <v>2051.199951171875</v>
+      </c>
+      <c r="E1174" t="n">
+        <v>2063.64990234375</v>
+      </c>
+      <c r="F1174" t="inlineStr"/>
+      <c r="G1174" t="n">
+        <v>1353226</v>
+      </c>
+      <c r="H1174" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1174" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1174" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1174" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1174" t="inlineStr"/>
+    </row>
+    <row r="1175">
+      <c r="A1175" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1175" t="n">
+        <v>2080</v>
+      </c>
+      <c r="C1175" t="n">
+        <v>2109.800048828125</v>
+      </c>
+      <c r="D1175" t="n">
+        <v>2051.050048828125</v>
+      </c>
+      <c r="E1175" t="n">
+        <v>2065.60009765625</v>
+      </c>
+      <c r="F1175" t="inlineStr"/>
+      <c r="G1175" t="n">
+        <v>603463</v>
+      </c>
+      <c r="H1175" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1175" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1175" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1175" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1175" t="inlineStr"/>
+    </row>
+    <row r="1176">
+      <c r="A1176" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1176" t="n">
+        <v>2065.60009765625</v>
+      </c>
+      <c r="C1176" t="n">
+        <v>2106.949951171875</v>
+      </c>
+      <c r="D1176" t="n">
+        <v>2030.400024414062</v>
+      </c>
+      <c r="E1176" t="n">
+        <v>2054.949951171875</v>
+      </c>
+      <c r="F1176" t="inlineStr"/>
+      <c r="G1176" t="n">
+        <v>1036672</v>
+      </c>
+      <c r="H1176" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1176" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1176" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1176" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1176" t="inlineStr"/>
+    </row>
+    <row r="1177">
+      <c r="A1177" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1177" t="n">
+        <v>2060.300048828125</v>
+      </c>
+      <c r="C1177" t="n">
+        <v>2060.85009765625</v>
+      </c>
+      <c r="D1177" t="n">
+        <v>1924.150024414062</v>
+      </c>
+      <c r="E1177" t="n">
+        <v>1931.050048828125</v>
+      </c>
+      <c r="F1177" t="inlineStr"/>
+      <c r="G1177" t="n">
+        <v>1401449</v>
+      </c>
+      <c r="H1177" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1177" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1177" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1177" t="inlineStr"/>
+    </row>
+    <row r="1178">
+      <c r="A1178" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1178" t="n">
+        <v>1925</v>
+      </c>
+      <c r="C1178" t="n">
+        <v>2054.64990234375</v>
+      </c>
+      <c r="D1178" t="n">
+        <v>1838.599975585938</v>
+      </c>
+      <c r="E1178" t="n">
+        <v>2014.900024414062</v>
+      </c>
+      <c r="F1178" t="inlineStr"/>
+      <c r="G1178" t="n">
+        <v>1750375</v>
+      </c>
+      <c r="H1178" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1178" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1178" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1178" t="inlineStr"/>
+    </row>
+    <row r="1179">
+      <c r="A1179" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1179" t="n">
+        <v>2015.900024414062</v>
+      </c>
+      <c r="C1179" t="n">
+        <v>2065.5</v>
+      </c>
+      <c r="D1179" t="n">
+        <v>1970</v>
+      </c>
+      <c r="E1179" t="n">
+        <v>2058.949951171875</v>
+      </c>
+      <c r="F1179" t="inlineStr"/>
+      <c r="G1179" t="n">
+        <v>1244968</v>
+      </c>
+      <c r="H1179" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1179" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1179" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1179" t="inlineStr"/>
+    </row>
+    <row r="1180">
+      <c r="A1180" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1180" t="n">
+        <v>2052.949951171875</v>
+      </c>
+      <c r="C1180" t="n">
+        <v>2079.85009765625</v>
+      </c>
+      <c r="D1180" t="n">
+        <v>1950</v>
+      </c>
+      <c r="E1180" t="n">
+        <v>2001.050048828125</v>
+      </c>
+      <c r="F1180" t="inlineStr"/>
+      <c r="G1180" t="n">
+        <v>3185046</v>
+      </c>
+      <c r="H1180" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1180" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1180" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1180" t="inlineStr"/>
+    </row>
+    <row r="1181">
+      <c r="A1181" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1181" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C1181" t="n">
+        <v>2064.64990234375</v>
+      </c>
+      <c r="D1181" t="n">
+        <v>1954.550048828125</v>
+      </c>
+      <c r="E1181" t="n">
+        <v>1999.099975585938</v>
+      </c>
+      <c r="F1181" t="inlineStr"/>
+      <c r="G1181" t="n">
+        <v>1335247</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1181" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1181" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1181" t="inlineStr"/>
+    </row>
+    <row r="1182">
+      <c r="A1182" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1182" t="n">
+        <v>2007</v>
+      </c>
+      <c r="C1182" t="n">
+        <v>2008.900024414062</v>
+      </c>
+      <c r="D1182" t="n">
+        <v>1854.050048828125</v>
+      </c>
+      <c r="E1182" t="n">
+        <v>1873.949951171875</v>
+      </c>
+      <c r="F1182" t="inlineStr"/>
+      <c r="G1182" t="n">
+        <v>830267</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1182" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1182" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1182" t="inlineStr"/>
+    </row>
+    <row r="1183">
+      <c r="A1183" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1183" t="n">
+        <v>1873.949951171875</v>
+      </c>
+      <c r="C1183" t="n">
+        <v>1916</v>
+      </c>
+      <c r="D1183" t="n">
+        <v>1820.599975585938</v>
+      </c>
+      <c r="E1183" t="n">
+        <v>1884</v>
+      </c>
+      <c r="F1183" t="inlineStr"/>
+      <c r="G1183" t="n">
+        <v>1883280</v>
+      </c>
+      <c r="H1183" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1183" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1183" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1183" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1183" t="inlineStr"/>
+    </row>
+    <row r="1184">
+      <c r="A1184" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1184" t="n">
+        <v>1881</v>
+      </c>
+      <c r="C1184" t="n">
+        <v>1886.449951171875</v>
+      </c>
+      <c r="D1184" t="n">
+        <v>1796</v>
+      </c>
+      <c r="E1184" t="n">
+        <v>1818.550048828125</v>
+      </c>
+      <c r="F1184" t="inlineStr"/>
+      <c r="G1184" t="n">
+        <v>809439</v>
+      </c>
+      <c r="H1184" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1184" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1184" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1184" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1184" t="inlineStr"/>
+    </row>
+    <row r="1185">
+      <c r="A1185" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1185" t="n">
+        <v>1818.550048828125</v>
+      </c>
+      <c r="C1185" t="n">
+        <v>1898.699951171875</v>
+      </c>
+      <c r="D1185" t="n">
+        <v>1778.449951171875</v>
+      </c>
+      <c r="E1185" t="n">
+        <v>1885.75</v>
+      </c>
+      <c r="F1185" t="inlineStr"/>
+      <c r="G1185" t="n">
+        <v>1308674</v>
+      </c>
+      <c r="H1185" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1185" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1185" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1185" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1185" t="inlineStr"/>
+    </row>
+    <row r="1186">
+      <c r="A1186" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1186" t="n">
+        <v>1887.949951171875</v>
+      </c>
+      <c r="C1186" t="n">
+        <v>1918</v>
+      </c>
+      <c r="D1186" t="n">
+        <v>1826</v>
+      </c>
+      <c r="E1186" t="n">
+        <v>1854</v>
+      </c>
+      <c r="F1186" t="inlineStr"/>
+      <c r="G1186" t="n">
+        <v>1363473</v>
+      </c>
+      <c r="H1186" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1186" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1186" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1186" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1186" t="inlineStr"/>
+    </row>
+    <row r="1187">
+      <c r="A1187" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1187" t="n">
+        <v>1856.949951171875</v>
+      </c>
+      <c r="C1187" t="n">
+        <v>1921</v>
+      </c>
+      <c r="D1187" t="n">
+        <v>1856</v>
+      </c>
+      <c r="E1187" t="n">
+        <v>1915.650024414062</v>
+      </c>
+      <c r="F1187" t="inlineStr"/>
+      <c r="G1187" t="n">
+        <v>1116388</v>
+      </c>
+      <c r="H1187" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1187" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1187" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1187" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1187" t="inlineStr"/>
+    </row>
+    <row r="1188">
+      <c r="A1188" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1188" t="n">
+        <v>1924</v>
+      </c>
+      <c r="C1188" t="n">
+        <v>1987.300048828125</v>
+      </c>
+      <c r="D1188" t="n">
+        <v>1911.050048828125</v>
+      </c>
+      <c r="E1188" t="n">
+        <v>1942.650024414062</v>
+      </c>
+      <c r="F1188" t="inlineStr"/>
+      <c r="G1188" t="n">
+        <v>1636175</v>
+      </c>
+      <c r="H1188" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1188" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1188" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1188" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1188" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
